--- a/DataDrivenFramework/src/test/resources/projectJSONs/XLS_Data/TestExcelData.xlsx
+++ b/DataDrivenFramework/src/test/resources/projectJSONs/XLS_Data/TestExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Training\eclipse-workspace\DataDrivenFramework\src\test\resources\projectJSONs\XLS_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0146D0B-1DA1-4950-93A5-E3DD08EBBAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502203E-B924-45AB-A04F-A7D0718559FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>createnewportfolio</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>AnshulTestExcel</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>port200</t>
@@ -80,7 +74,7 @@
     <t>addexistingstock</t>
   </si>
   <si>
-    <t>Portfolio_999</t>
+    <t>Selenium_Portfolio</t>
   </si>
 </sst>
 </file>
@@ -383,10 +377,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -415,67 +409,77 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
@@ -1464,6 +1468,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1477,13 +1482,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -1492,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1508,16 +1513,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -1525,11 +1530,11 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7">
         <v>45494</v>
@@ -1546,11 +1551,11 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>45494</v>
@@ -1566,7 +1571,7 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1582,27 +1587,27 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
         <v>45643</v>
@@ -1624,7 +1629,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1640,27 +1645,27 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
         <v>45494</v>
@@ -1676,11 +1681,11 @@
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
         <v>45372</v>
